--- a/面试文章/相关文章详细内容.xlsx
+++ b/面试文章/相关文章详细内容.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -77,10 +77,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>历经 33 天，终于拿到了心仪的 Offer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://mp.weixin.qq.com/s?__biz=MjM5NDkxMTgyNw==&amp;mid=2653059378&amp;idx=2&amp;sn=d4b3fb01dc8379ad93eb4b49ff62c73d&amp;chksm=bd565a0e8a21d31805b635371579dd9ae6f7acf56b096e71cf37346ee57b1b71674e0bbfd439&amp;mpshare=1&amp;scene=2&amp;srcid=1026gYFOCmI2tkJ58Ow2bS5h&amp;from=timeline&amp;key=070759cbe7afbd8275e30e07a9a899c679f018b441f0568a0233bdec8709641da585d0e9aa57b467fbe23a9613e1266c5227d1d08587e9d20a668091edec6aed2b1e5e1a58e0d52d267a76c18bcc1d4e&amp;ascene=14&amp;uin=MTk2MDUxMTg4MQ%3D%3D&amp;devicetype=Windows+10&amp;version=62060038&amp;pass_ticket=hMlT5MJ1a1%2FhnypvyRVLw1dvSksyZiR%2FrU1plNlgbF4FIvxtjg8%2Bp4sGrE%2B7gJtu&amp;winzoom=1</t>
-  </si>
-  <si>
-    <t>历经 33 天，终于拿到了心仪的 Offer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,13 +410,13 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -476,10 +477,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
